--- a/frontend-cemos/public/assets/content/direito/5-protocolo-I/script/vf1.xlsx
+++ b/frontend-cemos/public/assets/content/direito/5-protocolo-I/script/vf1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>bibliografia_id</t>
+          <t>bibliografia_titulo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,22 +488,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O principal propósito das Nações Unidas é manter a paz e a segurança internacionais, tomando medidas coletivas para evitar ameaças à paz e reprimir atos de agressão.</t>
+          <t>As Altas Partes Contratantes se comprometem a respeitar e fazer respeitar o presente Protocolo em todas as circunstâncias.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>O principal propósito das Nações Unidas limita-se a promover a cooperação cultural e social, abstendo-se de tomar medidas coercitivas para reprimir a agressão.</t>
+          <t>As Altas Partes Contratantes se comprometem a respeitar o Protocolo, mas sua aplicação pode ser suspensa em circunstâncias excepcionais de necessidade militar imperiosa.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>O primeiro propósito da ONU é Manter a paz e a segurança internacionais e tomar, coletivamente, medidas efetivas para evitar ameaças à paz e reprimir atos de agressão ou outra qualquer ruptura da paz.</t>
+          <t>O Artigo 1, parágrafo 1, impõe o compromisso de respeitar e fazer respeitar o Protocolo em todas as circunstâncias.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,7 +512,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -522,22 +522,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A Carta das Nações Unidas foi assinada em São Francisco a 26 de junho de 1945.</t>
+          <t>As pessoas civis e os combatentes, nos casos não previstos no Protocolo, permanecem sob a proteção dos princípios do Direito Internacional derivado dos costumes estabelecidos, dos princípios de humanidade e dos ditames da consciência pública.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Carta das Nações Unidas foi promulgada em 22 de outubro de 1945, data da sua assinatura em Nova York.</t>
+          <t>Nos casos não previstos no Protocolo ou em outros acordos internacionais, as pessoas civis e os combatentes não gozam de proteção até que novas normas sejam estabelecidas.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A Carta das Nações Unidas foi assinada em São Francisco, a 26 de junho de 1945.</t>
+          <t>O Artigo 1, parágrafo 2, garante que a proteção dos princípios de humanidade e do Direito Internacional costumeiro se mantém nos casos omissos.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -556,22 +556,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>As Nações Unidas buscam a cooperação internacional para promover e estimular o respeito aos direitos humanos e às liberdades fundamentais para todos, sem distinção de raça, sexo, língua ou religião.</t>
+          <t>O Protocolo aplica-se aos conflitos armados nos quais os povos lutam contra a dominação colonial e a ocupação estrangeira e contra os regimes racistas, no exercício do direito de livre determinação.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Carta estabelece que a promoção dos direitos humanos é responsabilidade exclusiva dos Estados-membros, sendo vedada a interferência da ONU nesse assunto.</t>
+          <t>O Protocolo I se aplica exclusivamente a conflitos armados entre Estados Partes, não abrangendo conflitos internos ou lutas contra dominação colonial.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>O Artigo 1 (3) estabelece o propósito de conseguir cooperação internacional para promover e estimular o respeito aos direitos humanos e às liberdades fundamentais para todos, sem distinção.</t>
+          <t>O Artigo 1, parágrafo 4, expande o campo de aplicação do Protocolo I para incluir lutas pela livre determinação contra dominação colonial, ocupação estrangeira e regimes racistas.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -580,7 +580,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -590,22 +590,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A Organização das Nações Unidas é baseada no princípio da igualdade de todos os seus Membros.</t>
+          <t>Os veículos sanitários serão respeitados e protegidos da mesma forma prevista nas Convenções e no Protocolo I para as unidades sanitárias móveis.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A ONU é baseada no princípio da desigualdade soberana, conferindo maior peso aos membros permanentes do Conselho de Segurança em todas as decisões.</t>
+          <t>Os veículos sanitários, por serem meios de transporte e não unidades fixas, gozam de proteção inferior àquela prevista para as unidades sanitárias móveis.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>O Artigo 2 (1) afirma que a Organização é baseada no princípio da igualdade de todos os seus Membros.</t>
+          <t>O Artigo 21 estabelece que os veículos sanitários receberão respeito e proteção da mesma forma que as unidades sanitárias móveis.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,7 +614,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -624,22 +624,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Todos os Membros deverão evitar a ameaça ou o uso da força contra a integridade territorial ou a dependência política de qualquer Estado em suas relações internacionais.</t>
+          <t>A proteção prevista para navios-hospitais estende-se a navios-hospitais colocados à disposição de uma Parte em conflito por um Estado neutro ou por uma organização internacional humanitária e imparcial.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>O uso da força é permitido nas relações internacionais, desde que seja comunicado ao Conselho de Segurança antes da sua execução.</t>
+          <t>A proteção dos navios-hospitais é exclusiva para aqueles pertencentes às Partes em conflito, não se aplicando a embarcações cedidas por Estados neutros ou organizações internacionais.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O Artigo 2 (4) exige que todos os Membros evitem em suas relações internacionais a ameaça ou o uso da força contra a integridade territorial ou a dependência política de qualquer Estado.</t>
+          <t>O Artigo 22, parágrafo 2, estende a proteção dos navios-hospitais àqueles colocados à disposição por um Estado neutro ou organização internacional humanitária e imparcial.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,7 +648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -658,22 +658,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O princípio de não intervenção em assuntos que dependam essencialmente da jurisdição interna de qualquer Estado não prejudica a aplicação das medidas coercitivas constantes do Capítulo VII da Carta.</t>
+          <t>As embarcações costeiras de salvamento (Artigo 27 da Segunda Convenção) serão protegidas mesmo que não se faça a notificação prévia prevista pela Convenção.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>O Capítulo VII, que trata de ações coercitivas, não pode ser aplicado em assuntos que dependam da jurisdição interna de um Estado, prevalecendo o princípio de não intervenção.</t>
+          <t>As embarcações costeiras de salvamento perdem a proteção caso a notificação formal não seja realizada conforme o Artigo 27 da Segunda Convenção.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>O princípio de não intervenção (Artigo 2.7) não prejudicará a aplicação das medidas coercitivas constantes do Capítulo VII.</t>
+          <t>O Artigo 22, parágrafo 3, garante a proteção das embarcações descritas no Artigo 27 da Segunda Convenção, ainda que não haja notificação.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -682,7 +682,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -692,22 +692,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança é composto por quinze Membros das Nações Unidas.</t>
+          <t>Os navios e embarcações sanitárias diferentes dos navios-hospitais serão respeitados e protegidos da mesma forma prevista para as unidades sanitárias móveis, devendo levar o emblema distintivo.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança é composto por dez membros não permanentes e dois membros permanentes, totalizando doze membros.</t>
+          <t>Os navios e embarcações sanitárias de menor porte não estão obrigados a levar o emblema distintivo, pois a proteção é garantida pelo reconhecimento de sua missão.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança será composto de quinze Membros das Nações Unidas.</t>
+          <t>O Artigo 23, parágrafo 1, determina que tais navios serão respeitados e protegidos como unidades sanitárias móveis e devem levar o emblema distintivo.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -716,7 +716,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -726,22 +726,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A República da China, a França, a União das Repúblicas Socialistas Soviéticas, o Reino Unido da Grã-Bretanha e Irlanda do Norte e os Estados Unidos da América são os membros permanentes do Conselho de Segurança.</t>
+          <t>Navios de guerra navegando na superfície podem ordenar que navios e embarcações sanitárias se detenham ou mudem de rumo, e tal ordem deve ser obedecida, mas não podem desviá-los permanentemente de sua missão.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Os membros permanentes do Conselho de Segurança incluem a Alemanha, o Japão e a Índia, além dos Estados Unidos e da Rússia.</t>
+          <t>Navios de guerra podem confiscar ou desviar navios e embarcações sanitárias de sua missão, desde que haja uma necessidade militar iminente.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Os cinco membros permanentes estão listados no Artigo 23 (1).</t>
+          <t>O Artigo 23, parágrafo 2, estabelece que, embora sujeitos às leis da guerra, tais navios não poderão ser desviados de sua missão sanitária enquanto necessários para os feridos a bordo.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -750,7 +750,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -760,22 +760,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Os membros não permanentes do Conselho de Segurança são eleitos por um período de dois anos, e nenhum membro que termine seu mandato poderá ser reeleito para o período imediato.</t>
+          <t>A proteção outorgada aos navios sanitários cessará somente nas condições estabelecidas nos Artigos 34 e 35 da Segunda Convenção, como o uso em atos prejudiciais ao inimigo.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Os membros não permanentes são eleitos por um período de quatro anos, e podem ser reeleitos imediatamente, dependendo da distribuição geográfica equitativa.</t>
+          <t>A proteção outorgada aos navios sanitários cessa automaticamente se estes se recusarem a obedecer a qualquer ordem dada por um navio de guerra adversário.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Os membros não permanentes são eleitos por um período de dois anos e não podem ser reeleitos para o período imediato.</t>
+          <t>O Artigo 23, parágrafo 3, afirma que a proteção cessará *somente* nas condições do Artigo 34 e 35 da Segunda Convenção, sendo que a negativa inequívoca de obedecer a uma ordem constitui um ato prejudicial ao inimigo, conforme o Artigo 34.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -784,32 +784,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Os Membros da ONU conferem ao Conselho de Segurança a principal responsabilidade na manutenção da paz e da segurança internacionais.</t>
+          <t>As aeronaves sanitárias serão respeitadas e protegidas em conformidade com as disposições do Título II do presente Protocolo, que trata de Transportes Sanitários.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A principal responsabilidade pela manutenção da paz e segurança internacionais cabe à Assembleia Geral, cabendo ao Conselho de Segurança apenas funções consultivas.</t>
+          <t>As aeronaves sanitárias somente gozam de proteção se transportarem exclusivamente feridos, enfermos ou náufragos civis.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>O Artigo 24 (1) confere ao Conselho de Segurança a principal responsabilidade na manutenção da paz e da segurança internacionais.</t>
+          <t>O Artigo 24 determina que as aeronaves sanitárias serão respeitadas e protegidas em conformidade com as disposições do Título, que trata de Transportes Sanitários.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -818,32 +818,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Os Membros das Nações Unidas concordam em aceitar e executar as decisões do Conselho de Segurança, de acordo com a presente Carta.</t>
+          <t>É proibido o emprego de armas, projéteis, materiais e métodos de combate de tal índole que causem males supérfluos ou sofrimentos desnecessários.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>As decisões do Conselho de Segurança são meras recomendações e não são de execução obrigatória para os Estados-membros, exceto em caso de legítima defesa.</t>
+          <t>O direito das Partes em conflito à escolha dos métodos ou meios de combate é ilimitado, desde que tais meios não sejam expressamente proibidos por acordos anteriores.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>O Artigo 25 estabelece que os Membros concordam em aceitar e executar as decisões do Conselho de Segurança.</t>
+          <t>O Artigo 35, parágrafo 1, estabelece que o direito das Partes em conflito à escolha dos métodos ou meios de combate não é ilimitado.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -852,32 +852,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>No cumprimento de seus deveres, o Conselho de Segurança agirá de acordo com os Propósitos e Princípios das Nações Unidas.</t>
+          <t>A simulação da condição de pessoa civil ou de incapacidade por ferimentos são exemplos de atos que constituem perfídia.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança tem total liberdade de ação, não precisando aderir estritamente aos Propósitos e Princípios da Organização ao cumprir seus deveres.</t>
+          <t>Estratagemas como camuflagem ou informações falsas são considerados atos de perfídia e são proibidos pelo Protocolo.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>O Artigo 24 (2) estabelece que o Conselho de Segurança agirá de acordo com os Propósitos e Princípios das Nações Unidas.</t>
+          <t>O Artigo 37, parágrafo 1, lista a simulação de pessoa civil como exemplo de perfídia, enquanto o parágrafo 2 esclarece que estratagemas (como camuflagem) não são proibidos.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -886,32 +886,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cada membro do Conselho de Segurança terá um voto.</t>
+          <t>É proibido fazer uso indevido do emblema distintivo da Cruz Vermelha, do Crescente Vermelho ou de outros emblemas, símbolos ou sinais estabelecidos nas Convenções e no Protocolo.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Apenas os membros permanentes do Conselho de Segurança possuem direito a voto, cabendo aos não permanentes apenas a participação em deliberações.</t>
+          <t>O uso indevido do emblema da Cruz Vermelha é proibido apenas se for feito com a intenção de matar, ferir ou capturar um adversário.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>O Artigo 27 (1) estabelece que cada membro do Conselho de Segurança terá um voto.</t>
+          <t>O Artigo 38, parágrafo 1, proíbe o uso indevido de emblemas reconhecidos, independentemente da intenção de perfídia, embora o uso pérfido seja considerado infração grave.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -920,32 +920,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>As decisões do Conselho de Segurança em questões processuais serão tomadas pelo voto afirmativo de nove Membros.</t>
+          <t>É proibido fazer uso das bandeiras ou dos uniformes militares de Partes adversas durante os ataques, ou para cobrir, favorecer, proteger ou impedir operações militares.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>As decisões sobre questões processuais exigem o voto afirmativo de nove membros, incluindo o voto unânime dos membros permanentes.</t>
+          <t>O uso de uniformes de Partes adversas é permitido para proteger operações militares, desde que o combatente se identifique antes do ataque.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>As decisões em questões processuais requerem o voto afirmativo de nove Membros.</t>
+          <t>O Artigo 39, parágrafo 2, proíbe expressamente o uso de bandeiras, emblemas ou uniformes de Partes adversas para cobrir, favorecer, proteger ou impedir operações militares.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -954,32 +954,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nas decisões sobre "todos os outros assuntos", o voto afirmativo de todos os membros permanentes é obrigatório, estabelecendo-se o direito de veto.</t>
+          <t>É proibido ordenar que não haja sobreviventes, ameaçar o adversário com isto ou conduzir as hostilidades em função de tal decisão.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Em questões substantivas, a abstenção de um membro permanente é considerada um veto, impedindo a aprovação da resolução.</t>
+          <t>A proibição de ordenar que não haja sobreviventes (Guarida) é restrita apenas a ameaças públicas feitas antes do início do ataque.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>As decisões sobre "todos os outros assuntos" exigem o voto afirmativo de nove membros, inclusive os votos afirmativos de todos os membros permanentes.</t>
+          <t>O Artigo 40 proíbe tanto a ordem quanto a ameaça, e também a condução das hostilidades em função dessa decisão.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -988,32 +988,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>As partes em controvérsia devem, antes de tudo, procurar uma solução por negociação, inquérito, mediação, conciliação, arbitragem, ou a qualquer outro meio pacífico à sua escolha.</t>
+          <t>Os membros das Forças Armadas de uma Parte em conflito são combatentes e têm direito a participar diretamente das hostilidades, exceto aqueles que são parte do pessoal sanitário e religioso.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança deve ser o primeiro a intervir em qualquer controvérsia, pois a negociação direta entre as partes é desincentivada pela Carta.</t>
+          <t>Todos os membros das Forças Armadas de uma Parte em conflito são combatentes e têm direito a participar diretamente das hostilidades, incluindo o pessoal sanitário e religioso.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>O Artigo 33 (1) lista os diversos meios pacíficos que as partes devem procurar antes de tudo.</t>
+          <t>O Artigo 43, parágrafo 2, define que os membros das Forças Armadas são combatentes, exceto o pessoal sanitário e religioso (Art. 33 da Terceira Convenção).</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1022,32 +1022,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança poderá investigar qualquer controvérsia para determinar se a sua continuação pode constituir ameaça à manutenção da paz e da segurança internacionais.</t>
+          <t>Para promover a proteção da população civil, os combatentes são obrigados a distinguir-se da população civil no curso de um ataque ou de uma operação militar preparatória de um ataque.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança só pode investigar controvérsias após o fracasso das negociações, sendo-lhe proibido investigar situações que apenas "possam provocar atritos".</t>
+          <t>A obrigação de distinguir-se da população civil só é aplicável a milícias e grupos paramilitares, e não a unidades armadas regulares e uniformizadas.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança poderá investigar qualquer controvérsia ou situação suscetível de provocar atritos para determinar se pode constituir ameaça à paz.</t>
+          <t>O Artigo 44, parágrafo 3, estabelece essa obrigação para todos os combatentes com o propósito de proteger a população civil.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1056,32 +1056,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança convidará as partes a resolver suas controvérsias por meios pacíficos quando julgar necessário.</t>
+          <t>O combatente que, devido à índole das hostilidades, não puder distinguir-se da população civil, deve portar suas armas abertamente durante cada engajamento militar e no deslocamento visível que antecede um ataque.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança está proibido de convidar as partes a resolver suas controvérsias por meios pacíficos, devendo apenas emitir recomendações judiciais.</t>
+          <t>O combatente que não puder distinguir-se da população civil perderá imediatamente seu estatuto de combatente e o direito a ser prisioneiro de guerra.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança convidará as partes a resolver por tais meios (pacíficos) suas controvérsias, quando julgar necessário.</t>
+          <t>O Artigo 44, parágrafo 3, permite ao combatente manter seu estatuto, mesmo sem se distinguir, se portar suas armas abertamente nas situações críticas de combate e deslocamento visível.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1090,32 +1090,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança determinará a existência de qualquer ameaça à paz, ruptura da paz ou ato de agressão, e decidirá as medidas a serem tomadas.</t>
+          <t>Uma pessoa que participe das hostilidades e caia em poder de uma Parte adversa será presumida prisioneiro de guerra.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A determinação de um ato de agressão é responsabilidade exclusiva da Assembleia Geral, cabendo ao Conselho de Segurança apenas a execução das sanções.</t>
+          <t>Para que uma pessoa que tenha participado das hostilidades seja presumida prisioneiro de guerra, ela deve reivindicar o estatuto ou sua Parte de origem deve fazê-lo.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>O Artigo 39 estabelece que o Conselho de Segurança determinará a existência de qualquer ameaça à paz, ruptura da paz ou ato de agressão.</t>
+          <t>O Artigo 45, parágrafo 1, estabelece que a pessoa *será presumida* prisioneiro de guerra.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1124,32 +1124,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança poderá convidar as partes a aceitarem medidas provisórias, a fim de evitar que a situação se agrave, tomando nota do não cumprimento dessas medidas.</t>
+          <t>Em caso de dúvida a respeito do direito de uma pessoa ao estatuto de prisioneiro de guerra, ela continuará protegida pela Terceira Convenção e pelo Protocolo I até que um tribunal competente tenha decidido a esse respeito.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>As medidas provisórias tomadas pelo Conselho de Segurança no Artigo 40 são obrigatoriamente coercitivas e envolvem o emprego de forças armadas, sem prejuízo da situação das partes interessadas.</t>
+          <t>Se houver dúvida sobre o estatuto de prisioneiro de guerra, a pessoa deve ser detida imediatamente como espião até que sua situação seja esclarecida.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>O Artigo 40 trata de medidas provisórias, que não envolvem forças armadas e não prejudicam direitos, mas o não cumprimento será notado.</t>
+          <t>O Artigo 45, parágrafo 1, garante a proteção da Terceira Convenção e do Protocolo durante o período de dúvida, aguardando a decisão de um tribunal competente.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1158,32 +1158,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança pode impor a interrupção completa ou parcial das relações econômicas, dos meios de comunicação e o rompimento das relações diplomáticas, sem envolver o emprego de forças armadas.</t>
+          <t>O membro das Forças Armadas que recolhe informação em território adversário não será considerado espião se, ao fazê-lo, envergar o uniforme das Forças Armadas a que pertence.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>As sanções do Artigo 41 se limitam a embargos econômicos, não incluindo a interrupção dos meios de comunicação ou o rompimento de relações diplomáticas.</t>
+          <t>Um membro das Forças Armadas que recolha informação em território adversário será sempre considerado espião, independentemente de estar ou não envergando seu uniforme.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>O Artigo 41 lista a interrupção completa ou parcial das relações econômicas, dos meios de comunicação e o rompimento das relações diplomáticas.</t>
+          <t>O Artigo 46, parágrafo 2, estabelece que envergar o uniforme evita a perda do estatuto de prisioneiro de guerra e a condição de espião.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1192,32 +1192,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança poderá levar a efeito uma ação militar, por meio de forças aéreas, navais ou terrestres, se considerar que as medidas não militares (Artigo 41) são inadequadas.</t>
+          <t>Os mercenários não terão direito ao estatuto de combatente ou de prisioneiro de guerra.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança pode optar diretamente por ações militares sem a necessidade de determinar previamente a inadequação das medidas não militares.</t>
+          <t>Embora os mercenários não sejam considerados combatentes, eles têm o direito de solicitar o estatuto de prisioneiro de guerra caso sejam capturados.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>O Artigo 42 permite ação militar apenas "no caso de o Conselho de Segurança considerar que as medidas previstas no Artigo 41 seriam ou demonstraram que são inadequadas".</t>
+          <t>O Artigo 47, parágrafo 1, é claro ao negar aos mercenários o direito ao estatuto de combatente ou de prisioneiro de guerra.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1226,32 +1226,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>A ação militar do Conselho de Segurança poderá compreender demonstrações, bloqueios e outras operações, por parte das forças aéreas, navais ou terrestres dos Membros das Nações Unidas.</t>
+          <t>Para ser considerado mercenário, a pessoa deve ter sido recrutada especialmente para combater e estar motivada essencialmente pelo desejo de obter um ganho material consideravelmente superior ao pago a combatentes regulares.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A ação militar da ONU, conforme o Artigo 42, é limitada a operações de manutenção da paz (peacekeeping), proibindo bloqueios e demonstrações coercitivas.</t>
+          <t>Para ser considerado mercenário, basta que a pessoa tenha sido recrutada para combater e não seja nacional da Parte em conflito.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>O Artigo 42 lista demonstrações, bloqueios e outras operações como possíveis ações militares.</t>
+          <t>O Artigo 47, parágrafo 2, alíneas a) e c), exige motivação financeira *essencial* e recrutamento *especial* para combater.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1260,32 +1260,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Os Membros das Nações Unidas se comprometem a proporcionar ao Conselho de Segurança, mediante acordos especiais, forças armadas, assistência e facilidades necessárias à manutenção da paz.</t>
+          <t>Uma pessoa residente em território controlado por uma Parte em conflito não pode ser considerada mercenária em favor de uma Parte adversa.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>O fornecimento de forças armadas pelos Membros ao Conselho de Segurança é voluntário e não depende de acordos especiais prévios.</t>
+          <t>A residência em território controlado por uma Parte em conflito é irrelevante para a definição de mercenário.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Os Membros se comprometem a proporcionar forças armadas, assistência e facilidades, mas de conformidade com o acôrdo ou acordos especiais.</t>
+          <t>O Artigo 47, parágrafo 2, alínea d), estipula que o mercenário não pode ser nacional de uma Parte em conflito *nem residente em um território controlado por uma Parte em conflito*.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1294,32 +1294,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Os acordos especiais entre o Conselho de Segurança e os Membros devem determinar o número e tipo das forças, seu grau de preparação e sua localização geral.</t>
+          <t>A norma fundamental para proteger civis e bens civis exige que as Partes em conflito dirijam suas operações unicamente contra os objetivos militares.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Os acordos especiais (Artigo 43) se referem apenas à assistência logística, não determinando o tipo, número ou localização das forças armadas.</t>
+          <t>A norma fundamental permite que as operações militares atinjam civis incidentalmente, desde que a vantagem militar seja significativa.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>O Artigo 43 (2) determina que o número e tipo das forças, o grau de preparação e sua localização geral serão determinados pelos acordos.</t>
+          <t>O Artigo 48 estabelece a obrigação de fazer distinção e dirigir operações *unicamente* contra objetivos militares.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1328,32 +1328,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança deve convidar um Membro não representado no Conselho a participar das decisões relativas ao emprego de seus contingentes, se o Membro assim o desejar.</t>
+          <t>As disposições do Protocolo relativas aos ataques aplicam-se a todos os ataques em qualquer território onde se realizem, inclusive no território nacional sob controle da Parte adversa.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Membros da ONU não representados no Conselho são obrigados a fornecer forças armadas se solicitado, mas não têm o direito de participar das decisões sobre o seu emprego.</t>
+          <t>As disposições do Protocolo sobre ataques aplicam-se apenas a ataques realizados fora do território nacional de uma Parte em conflito.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>O Artigo 44 estabelece que o Conselho deve convidar o referido Membro a participar das decisões, se este assim o desejar.</t>
+          <t>O Artigo 49, parágrafo 2, amplia o campo de aplicação das disposições de ataque, incluindo o território nacional sob controle adversário.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1362,32 +1362,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Os Membros da ONU deverão manter contingentes das forças aéreas nacionais imediatamente utilizáveis, a fim de habilitar as Nações Unidas a tomarem medidas militares urgentes.</t>
+          <t>Entende-se por "ataques" os atos de violência contra o adversário, abrangendo ações tanto ofensivas quanto defensivas.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A manutenção de contingentes de forças terrestres imediatamente utilizáveis é a principal prioridade para que a ONU possa tomar medidas militares urgentes.</t>
+          <t>Entende-se por "ataques" apenas os atos de violência de natureza ofensiva contra o adversário.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>O Artigo 45 exige que os Membros mantenham contingentes das **forças aéreas** nacionais imediatamente utilizáveis.</t>
+          <t>O Artigo 49, parágrafo 1, define ataques como atos de violência contra o adversário, sejam ofensivos ou defensivos.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1396,32 +1396,32 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pág 14</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança fará planos para a aplicação das forças armadas com a assistência da Comissão de Estado Maior.</t>
+          <t>Em caso de dúvida a respeito da condição de uma pessoa, ela será considerada como civil.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A aplicação das forças armadas é de inteira responsabilidade do Secretário-Geral, que deve formular os planos sem assistência da Comissão de Estado Maior.</t>
+          <t>Em caso de dúvida sobre a condição de uma pessoa, ela será tratada como combatente para fins de segurança militar.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>O Artigo 46 estabelece que o Conselho de Segurança, com a assistência da Comissão de Estado Maior, fará planos para a aplicação das forças armadas.</t>
+          <t>O Artigo 50, parágrafo 1, estabelece o princípio da presunção de civilidade em caso de dúvida.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1430,32 +1430,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pág 14</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>A Comissão de Estado Maior será composta pelos Chefes de Estado Maior dos Membros Permanentes do Conselho de Segurança ou de seus representantes.</t>
+          <t>A presença entre a população civil de pessoas cuja condição não corresponda à definição de civil não priva essa população de sua qualidade de civil.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A Comissão de Estado Maior é composta pelos Chefes de Estado Maior de todos os quinze membros do Conselho de Segurança.</t>
+          <t>A presença de um número significativo de combatentes disfarçados entre a população civil anula a proteção geral da população.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>O Artigo 47 (2) especifica que a Comissão é composta pelos Chefes de Estado Maior dos Membros Permanentes do Conselho de Segurança ou de seus representantes.</t>
+          <t>O Artigo 50, parágrafo 3, garante que a presença de não-civis não retira a qualidade de civil da população.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1464,32 +1464,32 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pág 14</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A Comissão de Estado Maior deve orientar e assistir o Conselho de Segurança em todas as questões relativas às exigências militares, à utilização e comando das forças, e à regulamentação de armamentos.</t>
+          <t>As pessoas civis perdem a proteção do Protocolo se participam diretamente das hostilidades e enquanto durar tal participação.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A Comissão de Estado Maior tem a responsabilidade exclusiva pelo comando tático das forças armadas da ONU, sem a necessidade de orientação do Conselho de Segurança.</t>
+          <t>As pessoas civis nunca perdem a proteção geral, mesmo que participem diretamente das hostilidades, pois o foco da proteção é a população como um todo.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>O Artigo 47 (1) define o papel da Comissão como orientar e assistir o Conselho de Segurança em todas as questões relativas às exigências militares, utilização e comando das forças.</t>
+          <t>O Artigo 51, parágrafo 3, condiciona a proteção civil à não participação direta nas hostilidades.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1498,32 +1498,32 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A ação necessária ao cumprimento das decisões do Conselho de Segurança será levada a efeito por todos os Membros ou por alguns deles, conforme determinado pelo Conselho.</t>
+          <t>Bens de caráter civil não serão objeto de ataques nem de represália, sendo definidos como todos os bens que não são objetivos militares.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Todas as decisões coercitivas do Conselho de Segurança devem ser executadas coletivamente por todos os Membros da ONU.</t>
+          <t>Os bens de caráter civil podem ser objeto de ataques se forem cruciais para a moral da Parte adversa, mas nunca de represálias.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>O Artigo 48 (1) estabelece que a ação será levada a efeito por todos os Membros ou por alguns deles, conforme seja determinado pelo Conselho de Segurança.</t>
+          <t>O Artigo 52, parágrafo 1, proíbe o ataque e a represália contra bens de caráter civil, definindo-os pelo critério residual de não serem objetivos militares.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1532,32 +1532,32 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Os Membros das Nações Unidas prestar-se-ão assistência mútua para a execução das medidas determinadas pelo Conselho de Segurança.</t>
+          <t>Objetivos militares se limitam àqueles objetos que contribuam eficazmente para a ação militar ou cuja destruição, captura ou neutralização ofereça uma vantagem militar definida.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A assistência mútua entre os Membros da ONU é obrigatória apenas para ações de legítima defesa, não se aplicando às medidas coercitivas do Conselho de Segurança.</t>
+          <t>A definição de objetivo militar abrange qualquer bem que possa ser utilizado, em teoria, para o esforço de guerra, mesmo que não contribua eficazmente para a ação militar no momento.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>O Artigo 49 obriga os Membros a prestarem assistência mútua para a execução das medidas determinadas pelo Conselho de Segurança.</t>
+          <t>O Artigo 52, parágrafo 2, impõe um critério estrito e eficaz (natureza, localização, finalidade ou utilização) para a definição de objetivos militares.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1566,32 +1566,32 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Qualquer Estado que sofra problemas econômicos resultantes de medidas preventivas ou coercitivas do Conselho de Segurança tem o direito de consultar o Conselho a respeito da solução de tais problemas.</t>
+          <t>Em caso de dúvida sobre a utilização de um bem normalmente civil (como um lugar de culto ou uma escola) para fins militares, ele será presumido como não utilizado com tal propósito.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Somente os Estados-membros da ONU têm o direito de consultar o Conselho de Segurança sobre problemas econômicos decorrentes de sanções.</t>
+          <t>O ônus da prova recai sobre a Parte que utiliza o bem para provar que ele não está contribuindo eficazmente para a ação militar.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>O Artigo 50 confere o direito de consulta ao Conselho de Segurança para qualquer outro Estado, "Membro ou não das Nações Unidas", que se sinta em presença de problemas especiais de natureza econômica.</t>
+          <t>O Artigo 52, parágrafo 3, estabelece uma presunção de civilidade para bens que normalmente se prestam a fins civis, invertendo o ônus da prova inicial.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1600,32 +1600,32 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>O direito inerente de legítima defesa individual ou coletiva é preservado no caso de ocorrer um ataque armado contra um Membro das Nações Unidas.</t>
+          <t>É proibido, como método de combate, fazer padecer de fome as pessoas civis.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A Carta das Nações Unidas aboliu o direito de legítima defesa individual, permitindo apenas a legítima defesa coletiva, desde que autorizada pelo Conselho de Segurança.</t>
+          <t>É permitido fazer padecer de fome as pessoas civis, desde que esta seja uma consequência indireta e não intencional de um ataque legítimo a um objetivo militar.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>O Artigo 51 preserva o direito inerente de legítima defesa individual ou coletiva no caso de ocorrer um ataque armado.</t>
+          <t>O Artigo 54, parágrafo 1, proíbe explicitamente fazer padecer de fome as pessoas civis *como método de combate*.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1634,32 +1634,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 12</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>O direito de legítima defesa se estende apenas até o momento em que o Conselho de Segurança tenha tomado as medidas necessárias para a manutenção da paz e da segurança internacionais.</t>
+          <t>É proibido atacar, destruir ou inutilizar gêneros alimentícios e reservas de água potável com a deliberada intenção de privar a população civil desses bens.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>O direito de legítima defesa, uma vez exercido, só pode ser encerrado por decisão do Estado agredido, independentemente das ações subsequentes do Conselho de Segurança.</t>
+          <t>A proibição de atacar bens indispensáveis à sobrevivência cessa se tais bens forem utilizados como meios de subsistência para os membros das Forças Armadas da Parte adversa.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>O direito de legítima defesa dura "até que o Conselho de Segurança tenha tomado as medidas necessárias para a manutenção da paz e da segurança internacionais".</t>
+          <t>O Artigo 54, parágrafo 2, estabelece a proibição geral, e o parágrafo 3 impõe uma condição estrita (não deixar desprovidas de víveres a população civil) mesmo quando usados pelas Forças Armadas.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1668,36 +1668,750 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>As medidas tomadas pelos Membros no exercício da legítima defesa devem ser comunicadas imediatamente ao Conselho de Segurança.</t>
+          <t>É proibido empregar métodos ou meios de combate que causem danos extensos, de longa duração e graves ao meio ambiente natural, comprometendo a saúde ou a sobrevivência da população.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A comunicação das medidas de legítima defesa ao Conselho de Segurança é opcional, cabendo ao Estado agredido decidir se o fará.</t>
+          <t>Danos ao meio ambiente natural não são considerados proibidos, a menos que sejam intencionais e causem efeitos irreversíveis.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>O Artigo 51 estabelece que as medidas tomadas pelos Membros no exercício desse direito de legítima defesa serão comunicadas imediatamente ao Conselho de Segurança.</t>
+          <t>O Artigo 55, parágrafo 1, proíbe meios e métodos que se preveja que causem danos extensos, de longa duração e graves ao meio ambiente natural, comprometendo a saúde ou sobrevivência da população.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>As obras e instalações que contêm forças perigosas (diques, represas, centrais nucleares) não serão atacadas, mesmo que sejam objetivos militares, se houver risco de liberação de forças perigosas com perdas severas na população civil.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>A proteção especial para obras com forças perigosas só se aplica se não estiverem localizadas perto de qualquer objetivo militar.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>O Artigo 56, parágrafo 1, protege essas obras e instalações mesmo que sejam objetivos militares, devido ao potencial de causar perdas severas na população civil.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>A proteção especial para um dique ou represa cessa somente se for utilizado em apoio regular, significativo e direto às operações militares e se o ataque for o único meio viável de pôr fim a esse apoio.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>A proteção especial para um dique cessa imediatamente se ele for utilizado em qualquer medida para o esforço de guerra.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>O Artigo 56, parágrafo 2, alínea a), estabelece critérios estritos de *regularidade, significância, e via única* para a cessação da proteção.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Os bens protegidos (obras com forças perigosas) podem ser marcados com um sinal especial de três círculos laranja brilhante, mas a ausência desse sinal não dispensa as Partes de suas obrigações de proteção.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>A marcação com o sinal especial de três círculos cor laranja brilhante é um requisito obrigatório para que os bens com forças perigosas gozem de proteção.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>O Artigo 56, parágrafo 7, indica que a ausência do sinal *não dispensará* as Partes de suas obrigações.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Aqueles que planejam um ataque devem abster-se de efetuá-lo quando seja previsível que causará mortos ou feridos na população civil que seriam excessivos em relação à vantagem militar prevista.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>O ataque deve ser evitado se as perdas civis forem inevitáveis, independentemente da vantagem militar prevista.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>O Artigo 57, parágrafo 2, alínea a) subitem iii), exige a abstenção se as perdas civis previstas forem *excessivas* em relação à vantagem militar concreta e diretamente prevista.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Um ataque será cancelado ou suspenso se se tornar aparente que o objetivo não é militar ou que goza de proteção especial, ou se as perdas civis previstas se tornarem excessivas.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Uma vez que um ataque tenha começado, ele não pode ser cancelado ou suspenso, mesmo que as perdas civis se mostrem excessivas.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>O Artigo 57, parágrafo 2, alínea b), exige o cancelamento ou suspensão do ataque sob essas condições.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>As Partes em conflito devem evitar situar objetivos militares no interior ou nas proximidades de zonas densamente povoadas.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>As Partes em conflito são livres para situar seus objetivos militares onde for mais vantajoso, mesmo que em zonas densamente povoadas.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>O Artigo 58, alínea b), exige que as Partes evitem situar objetivos militares em ou nas proximidades de zonas densamente povoadas como medida de precaução.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>É proibido às Partes em conflito atacar, por quaisquer meios, localidades não defendidas.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>A proibição de atacar localidades não defendidas se aplica apenas a ataques aéreos ou de longo alcance, sendo permitidos ataques terrestres.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>O Artigo 59, parágrafo 1, proíbe o ataque por *quaisquer meios* a localidades não defendidas.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>A presença de forças policiais retidas com a única finalidade de manter a ordem pública não contraria as condições para que um local seja declarado localidade não defendida.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>A presença de qualquer força armada, incluindo a polícia para manutenção da ordem, impede que uma localidade seja declarada não defendida.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>O Artigo 59, parágrafo 3, permite a presença de forças policiais com a única finalidade de manter a ordem pública.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Uma das condições para declarar uma localidade não defendida é que todos os combatentes, armas e o material militar móvel tenham sido evacuados.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>A localidade não defendida pode manter algum material militar móvel, desde que não seja utilizado em combate.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>O Artigo 59, parágrafo 2, alínea a), exige a evacuação de todos os combatentes, armas e material militar móvel.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>O acordo para conferir a condição de zona desmilitarizada será expresso, podendo ser concluído verbalmente ou por escrito.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>O acordo para conferir a condição de zona desmilitarizada deve ser obrigatoriamente formalizado por escrito.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>O Artigo 60, parágrafo 2, estabelece que o acordo será expresso e pode ser concluído verbalmente ou por escrito.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>É proibido estender operações militares a zonas desmilitarizadas se essa extensão for contrária ao estipulado no acordo.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>A proibição de estender operações militares a zonas desmilitarizadas é absoluta e não admite exceções ou modificações por acordo.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>O Artigo 60, parágrafo 1, estabelece a proibição condicional à extensão ser contrária ao estipulado no acordo.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>A violação grave das disposições de uma zona desmilitarizada por uma Parte libera a outra das obrigações do acordo, mas a zona continua gozando de proteção pelas demais disposições do Protocolo.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>A violação grave por uma Parte do acordo de zona desmilitarizada anula imediatamente toda a proteção concedida à zona sob o Direito Internacional.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>O Artigo 60, parágrafo 7, libera a Parte adversa das obrigações do acordo, mas mantém a proteção pelas demais disposições do Protocolo.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Pág 17</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>O Comitê Internacional da Cruz Vermelha (CICV) pode exercer qualquer outra atividade humanitária, além de suas tarefas atribuídas, com o consentimento prévio das Partes em conflito interessadas.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>O CICV está limitado estritamente às tarefas humanitárias atribuídas pelas Convenções e pelo Protocolo, não podendo exercer atividades adicionais.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>O Artigo 81, parágrafo 1, permite ao CICV exercer outras atividades humanitárias, desde que haja consentimento prévio das Partes.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Pág 17</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>As Altas Partes Contratantes e as Partes em conflito devem dar ao CICV todas as facilidades possíveis para que ele possa desempenhar suas tarefas humanitárias.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>As Partes em conflito só são obrigadas a dar facilidades ao CICV se ele estiver atuando em seu próprio território.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>O Artigo 81, parágrafo 1, impõe a obrigação de dar *todas as facilidades que lhes seja possível* para as tarefas humanitárias do CICV.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Pág 17</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Outras organizações humanitárias receberão facilidades análogas às da Cruz Vermelha se estiverem devidamente autorizadas e exercerem suas atividades de acordo com o Protocolo.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>As facilidades concedidas ao CICV são exclusivas e intransferíveis a quaisquer outras organizações humanitárias.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>O Artigo 81, parágrafo 4, prevê a concessão de facilidades análogas a outras organizações humanitárias autorizadas, sob a condição de que sigam as normas do Protocolo.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Pág 18</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Fazer objeto de ataque uma pessoa com o conhecimento de que está fora de combate constitui uma infração grave ao Protocolo I.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Atacar uma pessoa fora de combate constitui uma infração, mas não é classificado como uma infração grave.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>O Artigo 85, parágrafo 3, alínea e), lista fazer objeto de ataque uma pessoa fora de combate, com conhecimento, como uma infração grave.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Pág 18</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Lançar um ataque indiscriminado ou um ataque contra obras com forças perigosas, com o conhecimento de que causará perdas civis excessivas, constitui infração grave.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Um ataque indiscriminado só é considerado infração grave se causar intencionalmente a morte de, pelo menos, cinco civis.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>O Artigo 85, parágrafo 3, alíneas b) e c), qualifica ataques indiscriminados e ataques contra obras perigosas como infrações graves se cometidos intencionalmente e com o conhecimento de que causarão perdas excessivas.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Pág 18</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>A transferência pela Potência ocupante de parte de sua própria população civil ao território que ocupa constitui uma infração grave ao Protocolo I.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>A transferência de população civil pela Potência ocupante ao território ocupado é proibida, mas não constitui uma infração grave, e sim uma infração disciplinar.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>O Artigo 85, parágrafo 4, alínea a), lista a transferência de população civil pela Potência ocupante como infração grave.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>As infrações graves ao Protocolo I e às Convenções se considerarão como crimes de guerra.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Infrações graves ao Protocolo I são consideradas crimes internacionais, mas a classificação específica como crimes de guerra é exclusiva das Convenções de Genebra de 1949.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>O Artigo 85, parágrafo 5, estabelece que as infrações graves a esses instrumentos se considerarão como crimes de guerra.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>O fato de a infração ter sido cometida por um subordinado não exime de responsabilidade penal ou disciplinar seus superiores, se estes sabiam ou podiam concluir a infração e não tomaram medidas para impedi-la.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>A responsabilidade por infrações cometidas por subordinados recai exclusivamente sobre o autor direto do ato.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>O Artigo 86, parágrafo 2, estabelece a responsabilidade dos superiores caso tenham conhecimento ou pudessem ter concluído a infração e não tomaram as medidas visíveis para impedi-la ou reprimi-la.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Decreto nº 849/1993 – Protocolo I.</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Os comandantes militares devem tomar medidas para que os membros das Forças Armadas sob suas ordens tenham conhecimento das obrigações em virtude das Convenções e do Protocolo.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>A instrução sobre as obrigações do Direito Internacional Humanitário é de responsabilidade exclusiva dos governos, e não dos comandantes militares.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>O Artigo 87, parágrafo 2, exige que os comandantes tomem medidas para que os membros das Forças Armadas sob suas ordens tenham conhecimento das obrigações.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
